--- a/datos_relu_verifbounds_target1_tolper1_mix.xlsx
+++ b/datos_relu_verifbounds_target1_tolper1_mix.xlsx
@@ -429,10 +429,10 @@
         <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>0.005444383621215821</v>
+        <v>0.00560760498046875</v>
       </c>
       <c r="D1" t="n">
-        <v>0.04354765415191651</v>
+        <v>0.04431710243225098</v>
       </c>
       <c r="E1" t="inlineStr">
         <is>
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="G1" t="n">
-        <v>0.9773400000000001</v>
+        <v>1.07398</v>
       </c>
       <c r="H1" t="n">
-        <v>1.34287</v>
+        <v>1.47189</v>
       </c>
       <c r="I1" t="inlineStr">
         <is>
@@ -469,13 +469,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005402565002441406</v>
+        <v>0.005481529235839844</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02718806266784668</v>
+        <v>0.04841122627258301</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04502747058868408</v>
+        <v>0.05990035533905029</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.8994999999999997</v>
+        <v>0.98838</v>
       </c>
       <c r="H2" t="n">
-        <v>1.2807</v>
+        <v>1.40738</v>
       </c>
       <c r="I2" t="n">
-        <v>1.37097</v>
+        <v>1.50664</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -505,28 +505,28 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005037355422973633</v>
+        <v>0.005160045623779297</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1175717830657959</v>
+        <v>0.1496896266937256</v>
       </c>
       <c r="E3" t="n">
-        <v>0.315519905090332</v>
+        <v>0.2238454341888428</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3883443593978882</v>
+        <v>0.5095611095428467</v>
       </c>
       <c r="G3" t="n">
-        <v>0.85056</v>
+        <v>0.9347199999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9770399999999999</v>
+        <v>1.07374</v>
       </c>
       <c r="I3" t="n">
-        <v>1.14832</v>
+        <v>1.26608</v>
       </c>
       <c r="J3" t="n">
-        <v>1.27204</v>
+        <v>1.40241</v>
       </c>
     </row>
     <row r="4">
@@ -537,10 +537,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007940125465393067</v>
+        <v>0.005359506607055664</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1125828504562378</v>
+        <v>0.1274149179458618</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.7692800000000001</v>
+        <v>0.8452400000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1.13832</v>
+        <v>1.25603</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005883169174194336</v>
+        <v>0.005423879623413086</v>
       </c>
       <c r="D5" t="n">
-        <v>0.121770977973938</v>
+        <v>0.113274359703064</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2948570966720581</v>
+        <v>0.2933053970336914</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.70194</v>
+        <v>0.7712799999999997</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7450799999999999</v>
+        <v>0.82208</v>
       </c>
       <c r="I5" t="n">
-        <v>1.23761</v>
+        <v>1.36153</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -613,28 +613,28 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005503416061401367</v>
+        <v>0.005423712730407715</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09002470970153809</v>
+        <v>0.09346036911010742</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1760745525360107</v>
+        <v>0.1858196973800659</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4476726055145264</v>
+        <v>0.473854923248291</v>
       </c>
       <c r="G6" t="n">
-        <v>0.68942</v>
+        <v>0.7575000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8127400000000001</v>
+        <v>0.8925599999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>1.21485</v>
+        <v>1.33183</v>
       </c>
       <c r="J6" t="n">
-        <v>1.88075</v>
+        <v>2.0661</v>
       </c>
     </row>
   </sheetData>
